--- a/results/2004_reps_by_state(600,1).xlsx
+++ b/results/2004_reps_by_state(600,1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D8D36-5492-6D4A-8974-96D452E83787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BA8DD-7599-2C47-8E04-BD33A3177BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{F8EB3DB6-2A6D-2F4B-ADC9-0FB157D597C6}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{DAB31892-06CC-A745-A17C-8B91E0BFF9CA}" name="2004_reps_by_state(600,1)" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2004_reps_by_state(600,1).csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2004_reps_by_state(600,1).csv" comma="1">
       <textFields count="10">
         <textField type="text"/>
         <textField/>
@@ -263,12 +263,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -283,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -292,6 +298,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +626,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="A46:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2074,31 +2084,32 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" s="5">
+      <c r="B46" s="9">
+        <v>1</v>
+      </c>
+      <c r="C46" s="10">
         <v>609890</v>
       </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="D46" s="9">
+        <v>2</v>
+      </c>
+      <c r="E46" s="10">
         <v>304945</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="11">
         <v>0.22598099999999999</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="9">
         <v>0</v>
       </c>
-      <c r="I46">
+      <c r="H46" s="11"/>
+      <c r="I46" s="9">
         <v>0</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="11">
         <v>0.22598099999999999</v>
       </c>
     </row>
